--- a/results/genotype_calling/PGx-NP_revise_result.xlsx
+++ b/results/genotype_calling/PGx-NP_revise_result.xlsx
@@ -797,7 +797,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>*1/*2</t>
+          <t>*2/*10B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
